--- a/end_result.xlsx
+++ b/end_result.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2340" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -33,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,19 +43,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -126,7 +142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -136,28 +152,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -259,6 +275,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -269,31 +286,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -315,7 +332,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -373,7 +390,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -386,12 +403,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -411,215 +429,1533 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="13.5703125" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="37.140625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="2"/>
-    <row r="2" ht="18.75" customHeight="1" s="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AL03P23N1E60</t>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N1E01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALM-1003-P23-N1-E060</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="2">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AL02P23N1E61</t>
+          <t>ALM-1003-P38-N1-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N1E02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALM-1002-P23-N1-E061</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" s="2">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AL02P23N1E62</t>
+          <t>ALM-1003-P38-N1-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N1E03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALM-1002-P23-N1-E062</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" s="2">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AL03P23N1E63</t>
+          <t>ALM-1003-P38-N1-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N1E04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALM-1003-P23-N1-E063</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" s="2">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AL02P23N1E64</t>
+          <t>ALM-1003-P38-N1-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N1E05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALM-1002-P23-N1-E064</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="2">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AL02P23N1E65</t>
+          <t>ALM-1003-P38-N1-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N1E06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ALM-1002-P23-N1-E065</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" s="2">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AL03P23N1E66</t>
+          <t>ALM-1003-P38-N1-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N1E07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALM-1003-P23-N1-E066</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" s="2">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AL03P23N1E67</t>
+          <t>ALM-1003-P38-N1-E07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N2E01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ALM-1003-P23-N1-E067</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" s="2">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AL02P23N1E68</t>
+          <t>ALM-1003-P38-N2-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N2E02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ALM-1002-P23-N1-E068</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="2">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AL02P23N1E69</t>
+          <t>ALM-1003-P38-N2-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N2E03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ALM-1002-P23-N1-E069</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="2">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AL02P23N1E70</t>
+          <t>ALM-1003-P38-N2-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N2E04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ALM-1002-P23-N1-E070</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" s="2">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AL02P23N1E71</t>
+          <t>ALM-1003-P38-N2-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N2E05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ALM-1002-P23-N1-E071</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" s="2">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AL02P23N1E72</t>
+          <t>ALM-1003-P38-N2-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N2E06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ALM-1002-P23-N1-E072</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" s="2">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AL03P23N1E73</t>
+          <t>ALM-1003-P38-N2-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>A03P38N2E07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ALM-1003-P23-N1-E073</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" s="2">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AL02P23N1E74</t>
+          <t>ALM-1003-P38-N2-E07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N1E01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ALM-1002-P23-N1-E074</t>
-        </is>
-      </c>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
+          <t>ALM-1003-P35-N1-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N1E02</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N1-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N1E03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N1-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N1E04</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N1-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N1E05</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N1-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N1E06</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N1-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N1E07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N1-E07</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N1E08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N1-E08</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N2E01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N2-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N2E02</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N2-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N2E03</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N2-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N2E04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N2-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N2E05</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N2-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N2E06</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N2-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N2E07</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N2-E07</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>A03P35N2E08</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ALM-1003-P35-N2-E08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N1E01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N1-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N1E02</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N1-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N1E03</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N1-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N1E04</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N1-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N1E05</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N1-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N1E06</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N1-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N2E01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N2-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N2E02</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N2-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N2E03</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N2-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N2E04</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N2-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N2E05</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N2-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>A03P05N2E06</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ALM-1003-P05-N2-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N1E01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N1-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N1E02</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N1-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N1E03</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N1-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N1E04</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N1-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N1E05</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N1-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N1E06</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N1-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N2E01</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N2-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N2E02</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N2-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N2E03</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N2-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N2E04</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N2-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N2E05</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N2-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>A03P01N2E06</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ALM-1003-P01-N2-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>A03P02N2E01</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ALM-1003-P02-N2-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>A03P02N2E02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ALM-1003-P02-N2-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>A03P02N2E03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ALM-1003-P02-N2-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>A03P02N2E04</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ALM-1003-P02-N2-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>A03P02N2E05</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ALM-1003-P02-N2-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>A03P02N2E06</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ALM-1003-P02-N2-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N1E02</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N1-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N1E03</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N1-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N1E04</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N1-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N1E05</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N1-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N1E06</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N1-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N2E02</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N2-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N2E03</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N2-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N2E04</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N2-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N2E05</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N2-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N2E06</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N2-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N1E01</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N1-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N1E02</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N1-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N1E03</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N1-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N1E04</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N1-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N1E05</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N1-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N1E06</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N1-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N2E01</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N2-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N2E02</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N2-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N2E03</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N2-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N2E04</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N2-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N2E05</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N2-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>A03P09N2E06</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ALM-1003-P09-N2-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N1E01</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N1-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N1E02</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N1-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N1E03</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N1-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N1E04</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N1-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N1E05</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N1-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N1E06</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N1-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N2E01</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N2-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N2E02</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N2-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N2E03</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N2-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N2E04</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N2-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N2E05</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N2-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>A03P10N2E06</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ALM-1003-P10-N2-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N1E01</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N1-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N1E02</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N1-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N1E03</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N1-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N1E04</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N1-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N1E05</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N1-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N1E06</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N1-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N2E01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N2-E01</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N2E02</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N2-E02</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N2E03</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N2-E03</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N2E04</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N2-E04</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N2E05</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N2-E05</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>A03P11N2E06</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ALM-1003-P11-N2-E06</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>A03P36N1E07</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ALM-1003-P36-N1-E07</t>
+        </is>
+      </c>
+    </row>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>